--- a/Maternal_death.xlsx
+++ b/Maternal_death.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,30 +412,50 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Settlement Locality</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>enumeration_code</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>description_to_aid_house</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>mapping_id</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>data_entry_personnel</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>date_of_mapping</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Enumerator</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Selection</t>
         </is>
@@ -478,31 +498,44 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>AROWOJOGBE /DEMURIN, ALAPERE</t>
+        </is>
+      </c>
+      <c r="K2">
+        <v>1150</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>9, Arowojobe Street Ketu-Alapere</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>LVASA/13/1150/33</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>tab14</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>2024-03-06</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>ARANJU OLUKUNLE
 FUNMI AGBAJE</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -540,31 +573,44 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>85 - 75 GASKIYA ROAD, ABETE</t>
+        </is>
+      </c>
+      <c r="K3">
+        <v>942</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>81 GASKIYA ROAD,BESIDES KD BAKERY ABETE IJORA 7UP BUS STOP APAPA IGANMU LAGOS.</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>LVASA/5/942/5</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>tab19</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2024-03-06</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>OKUNOLA OLUWATOYIN
 OMOBAMIDELE SESI</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -586,31 +632,44 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>NZEDURU /AKANBI IGE, AFROMEDIA</t>
+        </is>
+      </c>
+      <c r="K4">
+        <v>2840</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>NO 2, NZE DURU AVENUE, JAKANDE, AJANGBADI, AFROMEDIA, OJO, LAGOS STATE.</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>LVASA/17/2840/7</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>tab20</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -632,31 +691,44 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>NZEDURU /AKANBI IGE, AFROMEDIA</t>
+        </is>
+      </c>
+      <c r="K5">
+        <v>2840</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>NO 2, NZE DURU AVENUE, JAKANDE, AJANGBADI, AFROMEDIA, OJO, LAGOS STATE.</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>LVASA/17/2840/7</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>tab20</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -678,31 +750,44 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>NZEDURU /AKANBI IGE, AFROMEDIA</t>
+        </is>
+      </c>
+      <c r="K6">
+        <v>2840</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>NO 2, NZE DURU AVENUE, JAKANDE, AJANGBADI, AFROMEDIA, OJO, LAGOS STATE.</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>LVASA/17/2840/7</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>tab20</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -724,31 +809,44 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>NZEDURU /AKANBI IGE, AFROMEDIA</t>
+        </is>
+      </c>
+      <c r="K7">
+        <v>2840</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>NO 2, NZE DURU AVENUE, JAKANDE, AJANGBADI, AFROMEDIA, OJO, LAGOS STATE.</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>LVASA/17/2840/7</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>tab20</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -770,31 +868,44 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>AINA ALASO/ALLA DEY STR, IJANIKIN</t>
+        </is>
+      </c>
+      <c r="K8">
+        <v>1306</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>NO 13, AINA ALASO STREET, VESPER BUS STOP,  , IJANKIN, OJO, LAGOS STATE.</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>LVASA/17/1306/8</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>tab20</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -816,31 +927,44 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>AINA ALASO/ALLA DEY STR, IJANIKIN</t>
+        </is>
+      </c>
+      <c r="K9">
+        <v>1306</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>NO 13, AINA ALASO STREET, VESPER BUS STOP,  , IJANKIN, OJO, LAGOS STATE.</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>LVASA/17/1306/8</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>tab20</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -862,31 +986,44 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>AINA ALASO/ALLA DEY STR, IJANIKIN</t>
+        </is>
+      </c>
+      <c r="K10">
+        <v>1306</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>BUILDING 3 HOUSE NO 2, ELESO AJUALA STREET, MARKET ROAD, VESPER BUS STOP, IJANIKIN, OJO, LAGOS STATE.</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>LVASA/17/1306/23</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>tab20</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -908,31 +1045,44 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>AINA ALASO/ALLA DEY STR, IJANIKIN</t>
+        </is>
+      </c>
+      <c r="K11">
+        <v>1306</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>BUILDING 3 HOUSE NO 2, ELESO AJUALA STREET, MARKET ROAD, VESPER BUS STOP, IJANIKIN, OJO, LAGOS STATE.</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>LVASA/17/1306/23</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>tab20</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -975,31 +1125,44 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>AJARA FARM SETTLEMENT, AJARA TOPA</t>
+        </is>
+      </c>
+      <c r="K12">
+        <v>1122</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Plot 14, new creature str off Agric Road Ajara Topa Badagry.</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>LVASA/6/1122/42</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1042,31 +1205,44 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>SULE CLOSE, MAFOLUKU</t>
+        </is>
+      </c>
+      <c r="K13">
+        <v>274</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2 sule close off oseni Ewu Street mafoluku Oshodi lagos</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>LVASA/18/274/11</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>tab9</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>UGOCHUKWU OBINNA
 YEKINI MUSIBAU</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/Maternal_death.xlsx
+++ b/Maternal_death.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1248,6 +1248,86 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14">
+        <v>8664</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45335</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>AIYETORO, MAKOKO</t>
+        </is>
+      </c>
+      <c r="K14">
+        <v>688</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Madam charity Inuesokan house</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>LVASA/15/688/21</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>tab10</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
